--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Oxt</t>
+  </si>
+  <si>
+    <t>Avpr1a</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Oxt</t>
-  </si>
-  <si>
-    <t>Avpr1a</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,14 +519,14 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>3</v>
       </c>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5822833333333334</v>
+        <v>0.4682733333333333</v>
       </c>
       <c r="H2">
-        <v>1.74685</v>
+        <v>1.40482</v>
       </c>
       <c r="I2">
-        <v>0.5190008657689688</v>
+        <v>0.8677384764389626</v>
       </c>
       <c r="J2">
-        <v>0.5190008657689686</v>
+        <v>0.8677384764389627</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3710656666666667</v>
+        <v>0.560697</v>
       </c>
       <c r="N2">
-        <v>1.113197</v>
+        <v>1.682091</v>
       </c>
       <c r="O2">
-        <v>0.03569378523095436</v>
+        <v>0.05296871374736462</v>
       </c>
       <c r="P2">
-        <v>0.03569378523095435</v>
+        <v>0.05296871374736462</v>
       </c>
       <c r="Q2">
-        <v>0.2160653532722223</v>
+        <v>0.26255945318</v>
       </c>
       <c r="R2">
-        <v>1.94458817945</v>
+        <v>2.36303507862</v>
       </c>
       <c r="S2">
-        <v>0.01852510543743694</v>
+        <v>0.04596299096606971</v>
       </c>
       <c r="T2">
-        <v>0.01852510543743693</v>
+        <v>0.04596299096606971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5822833333333334</v>
+        <v>0.4682733333333333</v>
       </c>
       <c r="H3">
-        <v>1.74685</v>
+        <v>1.40482</v>
       </c>
       <c r="I3">
-        <v>0.5190008657689688</v>
+        <v>0.8677384764389626</v>
       </c>
       <c r="J3">
-        <v>0.5190008657689686</v>
+        <v>0.8677384764389627</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.38632</v>
       </c>
       <c r="O3">
-        <v>0.3971575973362078</v>
+        <v>0.3900427732288309</v>
       </c>
       <c r="P3">
-        <v>0.3971575973362078</v>
+        <v>0.3900427732288309</v>
       </c>
       <c r="Q3">
-        <v>2.404115899111111</v>
+        <v>1.933394451377778</v>
       </c>
       <c r="R3">
-        <v>21.637043092</v>
+        <v>17.4005500624</v>
       </c>
       <c r="S3">
-        <v>0.2061251368642153</v>
+        <v>0.3384551217876135</v>
       </c>
       <c r="T3">
-        <v>0.2061251368642153</v>
+        <v>0.3384551217876135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5822833333333334</v>
+        <v>0.4682733333333333</v>
       </c>
       <c r="H4">
-        <v>1.74685</v>
+        <v>1.40482</v>
       </c>
       <c r="I4">
-        <v>0.5190008657689688</v>
+        <v>0.8677384764389626</v>
       </c>
       <c r="J4">
-        <v>0.5190008657689686</v>
+        <v>0.8677384764389627</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>17.687901</v>
       </c>
       <c r="O4">
-        <v>0.5671486174328377</v>
+        <v>0.5569885130238045</v>
       </c>
       <c r="P4">
-        <v>0.5671486174328378</v>
+        <v>0.5569885130238045</v>
       </c>
       <c r="Q4">
-        <v>3.433123317983334</v>
+        <v>2.760924120313333</v>
       </c>
       <c r="R4">
-        <v>30.89810986185</v>
+        <v>24.84831708282</v>
       </c>
       <c r="S4">
-        <v>0.2943506234673164</v>
+        <v>0.4833203636852794</v>
       </c>
       <c r="T4">
-        <v>0.2943506234673164</v>
+        <v>0.4833203636852795</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4682733333333333</v>
+        <v>0.07137466666666667</v>
       </c>
       <c r="H5">
-        <v>1.40482</v>
+        <v>0.214124</v>
       </c>
       <c r="I5">
-        <v>0.4173814559060953</v>
+        <v>0.1322615235610373</v>
       </c>
       <c r="J5">
-        <v>0.4173814559060952</v>
+        <v>0.1322615235610373</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3710656666666667</v>
+        <v>0.560697</v>
       </c>
       <c r="N5">
-        <v>1.113197</v>
+        <v>1.682091</v>
       </c>
       <c r="O5">
-        <v>0.03569378523095436</v>
+        <v>0.05296871374736462</v>
       </c>
       <c r="P5">
-        <v>0.03569378523095435</v>
+        <v>0.05296871374736462</v>
       </c>
       <c r="Q5">
-        <v>0.1737601566155555</v>
+        <v>0.040019561476</v>
       </c>
       <c r="R5">
-        <v>1.56384140954</v>
+        <v>0.360176053284</v>
       </c>
       <c r="S5">
-        <v>0.01489792404649521</v>
+        <v>0.007005722781294907</v>
       </c>
       <c r="T5">
-        <v>0.01489792404649521</v>
+        <v>0.007005722781294906</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4682733333333333</v>
+        <v>0.07137466666666667</v>
       </c>
       <c r="H6">
-        <v>1.40482</v>
+        <v>0.214124</v>
       </c>
       <c r="I6">
-        <v>0.4173814559060953</v>
+        <v>0.1322615235610373</v>
       </c>
       <c r="J6">
-        <v>0.4173814559060952</v>
+        <v>0.1322615235610373</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>12.38632</v>
       </c>
       <c r="O6">
-        <v>0.3971575973362078</v>
+        <v>0.3900427732288309</v>
       </c>
       <c r="P6">
-        <v>0.3971575973362078</v>
+        <v>0.3900427732288309</v>
       </c>
       <c r="Q6">
-        <v>1.933394451377778</v>
+        <v>0.2946898204088889</v>
       </c>
       <c r="R6">
-        <v>17.4005500624</v>
+        <v>2.65220838368</v>
       </c>
       <c r="S6">
-        <v>0.1657662162003532</v>
+        <v>0.05158765144121735</v>
       </c>
       <c r="T6">
-        <v>0.1657662162003531</v>
+        <v>0.05158765144121735</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4682733333333333</v>
+        <v>0.07137466666666667</v>
       </c>
       <c r="H7">
-        <v>1.40482</v>
+        <v>0.214124</v>
       </c>
       <c r="I7">
-        <v>0.4173814559060953</v>
+        <v>0.1322615235610373</v>
       </c>
       <c r="J7">
-        <v>0.4173814559060952</v>
+        <v>0.1322615235610373</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>17.687901</v>
       </c>
       <c r="O7">
-        <v>0.5671486174328377</v>
+        <v>0.5569885130238045</v>
       </c>
       <c r="P7">
-        <v>0.5671486174328378</v>
+        <v>0.5569885130238045</v>
       </c>
       <c r="Q7">
-        <v>2.760924120313333</v>
+        <v>0.4208226793026666</v>
       </c>
       <c r="R7">
-        <v>24.84831708282</v>
+        <v>3.787404113724</v>
       </c>
       <c r="S7">
-        <v>0.2367173156592469</v>
+        <v>0.07366814933852506</v>
       </c>
       <c r="T7">
-        <v>0.2367173156592469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.07137466666666666</v>
-      </c>
-      <c r="H8">
-        <v>0.214124</v>
-      </c>
-      <c r="I8">
-        <v>0.0636176783249361</v>
-      </c>
-      <c r="J8">
-        <v>0.0636176783249361</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.3710656666666667</v>
-      </c>
-      <c r="N8">
-        <v>1.113197</v>
-      </c>
-      <c r="O8">
-        <v>0.03569378523095436</v>
-      </c>
-      <c r="P8">
-        <v>0.03569378523095435</v>
-      </c>
-      <c r="Q8">
-        <v>0.02648468826977778</v>
-      </c>
-      <c r="R8">
-        <v>0.238362194428</v>
-      </c>
-      <c r="S8">
-        <v>0.002270755747022209</v>
-      </c>
-      <c r="T8">
-        <v>0.002270755747022209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.07137466666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.214124</v>
-      </c>
-      <c r="I9">
-        <v>0.0636176783249361</v>
-      </c>
-      <c r="J9">
-        <v>0.0636176783249361</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.128773333333333</v>
-      </c>
-      <c r="N9">
-        <v>12.38632</v>
-      </c>
-      <c r="O9">
-        <v>0.3971575973362078</v>
-      </c>
-      <c r="P9">
-        <v>0.3971575973362078</v>
-      </c>
-      <c r="Q9">
-        <v>0.2946898204088889</v>
-      </c>
-      <c r="R9">
-        <v>2.65220838368</v>
-      </c>
-      <c r="S9">
-        <v>0.02526624427163937</v>
-      </c>
-      <c r="T9">
-        <v>0.02526624427163937</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.07137466666666666</v>
-      </c>
-      <c r="H10">
-        <v>0.214124</v>
-      </c>
-      <c r="I10">
-        <v>0.0636176783249361</v>
-      </c>
-      <c r="J10">
-        <v>0.0636176783249361</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.895967</v>
-      </c>
-      <c r="N10">
-        <v>17.687901</v>
-      </c>
-      <c r="O10">
-        <v>0.5671486174328377</v>
-      </c>
-      <c r="P10">
-        <v>0.5671486174328378</v>
-      </c>
-      <c r="Q10">
-        <v>0.4208226793026666</v>
-      </c>
-      <c r="R10">
-        <v>3.787404113724</v>
-      </c>
-      <c r="S10">
-        <v>0.03608067830627452</v>
-      </c>
-      <c r="T10">
-        <v>0.03608067830627452</v>
+        <v>0.07366814933852506</v>
       </c>
     </row>
   </sheetData>
